--- a/public/template/学员批量导入模板.xlsx
+++ b/public/template/学员批量导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>部门ids字符串</t>
   </si>
@@ -22,9 +22,6 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>昵称</t>
-  </si>
-  <si>
     <t>密码</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>24343@qq.com</t>
   </si>
   <si>
-    <t>第三方</t>
-  </si>
-  <si>
     <t>章阶段</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
   </si>
   <si>
     <t>3424545@qq.com</t>
-  </si>
-  <si>
-    <t>水电费的</t>
   </si>
   <si>
     <t>王叔</t>
@@ -1069,18 +1060,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,48 +1087,39 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>123123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
         <v>123123</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>123123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/学员批量导入模板.xlsx
+++ b/public/template/学员批量导入模板.xlsx
@@ -1,94 +1,162 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tengteng/work/playedu/backend/public/template/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C3C35F-C1CD-F94D-9EBF-477AD81C0C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="5200" windowWidth="35840" windowHeight="20400" xr2:uid="{E02FA35B-077B-EC44-9F63-D62EC1230311}"/>
+    <workbookView windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「部门」必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填写后台已创建的部门名称；子部门请用符号“-”连接补全父级部门，如：“一级部门-二级部门-三级部门”；如果该学员所属多个部门的话，则使用符号“|”连接，如：“技术部-产品部|技术部-设计部”
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「邮箱」必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>邮箱账号用于学员端登录
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「密码」必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度请控制在6-16个字符
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「姓名」必填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员姓名
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「身份证号」选填，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身份证号</t>
+    </r>
+  </si>
+  <si>
     <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证号（选填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.「部门」填写部门名称。子部门请用符号『-』连接补全上级部门，如：『一级部门-二级部门-三级部门』。如果关联多个部门的话，则使用符号『|』连接，如：技术部门-后端|技术部门-前端
-2.「邮箱」邮箱账号
-3.「密码」字符+数字的符合，长度请控制在6-16个字符
-4.「姓名」学员姓名
-5.「身份证号」身份证号，选填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -96,18 +164,174 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="Microsoft YaHei Bold"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +344,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -130,9 +540,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </right>
       <top/>
       <bottom/>
@@ -140,55 +561,336 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -237,7 +939,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,26 +972,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -322,23 +1007,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,60 +1148,67 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7CF1DF-E8C8-A642-A3A6-9E8430F6FA50}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="60.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="30.8333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.8333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="40.8333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="60.8333333333333" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="130" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" ht="130" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" customHeight="1" spans="2:2">
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="2:2">
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:2">
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/template/学员批量导入模板.xlsx
+++ b/public/template/学员批量导入模板.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16020"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>1.</t>
@@ -24,7 +37,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei Bold"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>「部门」必填，</t>
@@ -44,7 +57,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei Bold"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>「邮箱」必填，</t>
@@ -64,7 +77,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei Bold"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>「密码」必填，</t>
@@ -84,7 +97,7 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei Bold"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>「姓名」必填，</t>
@@ -96,27 +109,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>学员姓名
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Bold"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「身份证号」选填，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身份证号</t>
+      <t xml:space="preserve">学员姓名
+</t>
     </r>
   </si>
   <si>
@@ -131,19 +125,16 @@
   <si>
     <t>姓名</t>
   </si>
-  <si>
-    <t>身份证号（选填）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -196,36 +187,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -241,48 +202,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +227,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -311,6 +243,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -318,7 +281,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +318,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei Bold"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -346,25 +337,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,157 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,21 +552,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -590,17 +566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,11 +599,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,162 +648,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -829,63 +820,63 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1154,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" outlineLevelRow="5"/>
@@ -1165,8 +1156,7 @@
     <col min="1" max="2" width="30.8333333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.8333333333333" style="3" customWidth="1"/>
     <col min="4" max="4" width="40.8333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="60.8333333333333" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="3"/>
+    <col min="5" max="16384" width="10.8333333333333" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="130" customHeight="1" spans="1:1">
@@ -1174,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1186,9 +1176,6 @@
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:2">
@@ -1205,7 +1192,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:XFC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
